--- a/medicine/Handicap/Bibliothèque_sonore_romande/Bibliothèque_sonore_romande.xlsx
+++ b/medicine/Handicap/Bibliothèque_sonore_romande/Bibliothèque_sonore_romande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_sonore_romande</t>
+          <t>Bibliothèque_sonore_romande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bibliothèque Sonore Romande (BSR) est une fondation reconnue d'utilité publique du canton de Vaud, en Suisse. La BSR est localisée dans le quartier du Flon en plein centre ville de Lausanne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_sonore_romande</t>
+          <t>Bibliothèque_sonore_romande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bibliothèque Sonore Romande met gratuitement à disposition de personnes ne pouvant les lire, des livres enregistrés par des lecteurs bénévoles. Elle propose aux personnes aveugles, malvoyantes ou atteintes d'un autre handicap, plus de 31 000 livres sonores sur CD ou cartes mémoire, par téléchargement sur son site, ainsi que par des applications pour smartphone iOS et Android.
 Elle propose également une collection de films et séries audiodécrits sous forme de DVD.
-En 2021, elle fait partie des quatre bibliothèques qui reçoivent le prix spécial de médiation des Prix suisses de littérature pour leur engagement en faveur de la lecture[1].
+En 2021, elle fait partie des quatre bibliothèques qui reçoivent le prix spécial de médiation des Prix suisses de littérature pour leur engagement en faveur de la lecture.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_sonore_romande</t>
+          <t>Bibliothèque_sonore_romande</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La bibliothèque a vu le jour en 1976 sur la proposition faite par un groupe de personnes handicapées de la vue qui ont su convaincre Madeleine Bernet-Blanc de créer une bibliothèque sonore proposant aux aveugles et malvoyants, des livres contemporains. Jusqu'en 1995, la bibliothèque était connue sous l'appellation de « Fondation Laurent-Bernet », du nom du fils de la fondatrice décédé tragiquement lors d'un accident de la circulation.
 </t>
